--- a/MovieRatingsTables.xlsx
+++ b/MovieRatingsTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Parker/Development_Projects/MovieRatings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A53B778-40FA-B646-8AA6-02367B00D36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D18CD6-9207-804A-BF7C-8B17442454A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{C99C7E33-DE92-EB4B-B53A-0CC77E47057E}"/>
   </bookViews>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+  <si>
+    <t>Parameters Tested</t>
+  </si>
   <si>
     <t>Optimizer</t>
   </si>
@@ -100,6 +103,18 @@
   </si>
   <si>
     <t>Validation Accuracy Table</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>rmsProp</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
   </si>
 </sst>
 </file>
@@ -258,7 +273,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -275,6 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
@@ -592,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F328E58A-1349-1340-AFF2-B416673B78E3}">
-  <dimension ref="D5:K37"/>
+  <dimension ref="D5:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,245 +620,363 @@
     <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:16" ht="24" x14ac:dyDescent="0.3">
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="J10" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D12" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D13" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D14" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="M16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="M17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D29" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I30" s="5"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -850,7 +984,7 @@
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -864,7 +998,7 @@
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -872,7 +1006,7 @@
     </row>
     <row r="37" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>

--- a/MovieRatingsTables.xlsx
+++ b/MovieRatingsTables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Parker/Development_Projects/MovieRatings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D18CD6-9207-804A-BF7C-8B17442454A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE8188-CFBA-6544-87B8-112D4D6E76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{C99C7E33-DE92-EB4B-B53A-0CC77E47057E}"/>
+    <workbookView xWindow="17060" yWindow="760" windowWidth="17500" windowHeight="19960" xr2:uid="{C99C7E33-DE92-EB4B-B53A-0CC77E47057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
-  <si>
-    <t>Parameters Tested</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Optimizer</t>
   </si>
@@ -75,9 +72,6 @@
     <t>Keras Tuner Parameters Tested</t>
   </si>
   <si>
-    <t>Manual Parameters Tested</t>
-  </si>
-  <si>
     <t>RNN</t>
   </si>
   <si>
@@ -105,16 +99,34 @@
     <t>Validation Accuracy Table</t>
   </si>
   <si>
-    <t>adam</t>
-  </si>
-  <si>
-    <t>rmsProp</t>
-  </si>
-  <si>
     <t>relu</t>
   </si>
   <si>
     <t>sigmoid</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>tanh</t>
+  </si>
+  <si>
+    <t>selu</t>
+  </si>
+  <si>
+    <t>20-80</t>
+  </si>
+  <si>
+    <t>20-100</t>
+  </si>
+  <si>
+    <t>55-120</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -273,7 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -283,14 +295,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
@@ -608,189 +643,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F328E58A-1349-1340-AFF2-B416673B78E3}">
-  <dimension ref="D5:P37"/>
+  <dimension ref="D5:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>22</v>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:16" ht="24" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="M8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2770</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="M9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="M10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="M12" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="M13" s="5" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="M14" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>450</v>
+      </c>
+      <c r="F15" s="13">
+        <v>350</v>
+      </c>
+      <c r="G15" s="14">
+        <v>400</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -798,124 +831,166 @@
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="M16" s="16" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E16" s="13">
+        <v>200</v>
+      </c>
+      <c r="F16" s="13">
+        <v>400</v>
+      </c>
+      <c r="G16" s="14">
+        <v>300</v>
+      </c>
+      <c r="M16" s="12"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="M17" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="19">
+        <v>512</v>
+      </c>
+      <c r="F19" s="19">
+        <v>256</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2003</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="D23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>10</v>
+      <c r="D27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.01</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -923,11 +998,17 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -936,81 +1017,75 @@
       <c r="D29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="13">
+        <v>450</v>
+      </c>
+      <c r="F29" s="13">
+        <v>500</v>
+      </c>
+      <c r="G29" s="14">
+        <v>600</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="13">
+        <v>4</v>
+      </c>
+      <c r="F30" s="13">
+        <v>3</v>
+      </c>
+      <c r="G30" s="14">
+        <v>2</v>
+      </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D32" s="7"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+    <row r="32" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="19">
+        <v>256</v>
+      </c>
+      <c r="F32" s="19">
+        <v>512</v>
+      </c>
+      <c r="G32" s="20">
+        <v>128</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-    </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MovieRatingsTables.xlsx
+++ b/MovieRatingsTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Parker/Development_Projects/MovieRatings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE8188-CFBA-6544-87B8-112D4D6E76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1A5F3-5F3A-254B-B28C-5118E2765628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="760" windowWidth="17500" windowHeight="19960" xr2:uid="{C99C7E33-DE92-EB4B-B53A-0CC77E47057E}"/>
+    <workbookView xWindow="8080" yWindow="760" windowWidth="26480" windowHeight="19960" xr2:uid="{C99C7E33-DE92-EB4B-B53A-0CC77E47057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Optimizer</t>
   </si>
@@ -87,18 +87,12 @@
     <t xml:space="preserve">Elapsed Time </t>
   </si>
   <si>
-    <t>Validation Accuracy (MSE)</t>
-  </si>
-  <si>
     <t>Naïve Bayes (categorical)</t>
   </si>
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Validation Accuracy Table</t>
-  </si>
-  <si>
     <t>relu</t>
   </si>
   <si>
@@ -127,12 +121,46 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Actual Rating</t>
+  </si>
+  <si>
+    <t>FFNN Predicted</t>
+  </si>
+  <si>
+    <t>RNN Predicted</t>
+  </si>
+  <si>
+    <t>Naïve Bayes Predicted</t>
+  </si>
+  <si>
+    <t>['Drama DannyGlover RonPerlman LindaHamilton ZoeWeizenbaum DavidStrathairn']</t>
+  </si>
+  <si>
+    <t>Validation MSE or Accuracy</t>
+  </si>
+  <si>
+    <t>Model Peformance on Test Data</t>
+  </si>
+  <si>
+    <t>['Drama PaulWalker PiperPerabo LambertWilson LindaCardellini ShawnHatosy']</t>
+  </si>
+  <si>
+    <t>['Comedy MollyShannon WillFerrell ElaineHendrix HarlandWilliams TomGreen']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -279,13 +307,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -295,7 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -326,12 +354,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
     <cellStyle name="60% - Accent2" xfId="1" builtinId="36"/>
     <cellStyle name="60% - Accent4" xfId="2" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F328E58A-1349-1340-AFF2-B416673B78E3}">
   <dimension ref="D5:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,13 +697,17 @@
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -675,8 +719,8 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="I7" s="10" t="s">
-        <v>20</v>
+      <c r="I7" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -687,11 +731,11 @@
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>2770</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -701,16 +745,16 @@
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0.19583333333333333</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -719,187 +763,221 @@
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
       <c r="I10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="J10" s="6">
+        <v>0.85646</v>
+      </c>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="J11" s="6">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>30</v>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="23">
+        <v>6.1</v>
+      </c>
+      <c r="N12" s="24">
+        <v>6.1880245</v>
+      </c>
+      <c r="O12" s="24">
+        <v>6.5214569999999998</v>
+      </c>
+      <c r="P12" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>2E-3</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>1E-4</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="25">
+        <v>6</v>
+      </c>
+      <c r="N13" s="24">
+        <v>6.4637627999999996</v>
+      </c>
+      <c r="O13" s="24">
+        <v>7.3560800000000004</v>
+      </c>
+      <c r="P13" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="25">
+        <v>5</v>
+      </c>
+      <c r="N14" s="24">
+        <v>5.6949471999999997</v>
+      </c>
+      <c r="O14" s="24">
+        <v>5.1296396</v>
+      </c>
+      <c r="P14" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>450</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>350</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>400</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>200</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>400</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>300</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>3</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>4</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>512</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>256</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>1024</v>
       </c>
     </row>
-    <row r="20" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
@@ -910,171 +988,171 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>2003</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>0.26458333333333334</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="7"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>30</v>
+      <c r="E26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>1E-4</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>1E-3</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>0.01</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>21</v>
+      <c r="E28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>450</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>500</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>600</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>4</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>3</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>2</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>29</v>
+      <c r="E31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>256</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>512</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>128</v>
       </c>
       <c r="I32" s="5"/>
@@ -1082,10 +1160,10 @@
       <c r="K32" s="5"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
